--- a/Projeto/Diario.xlsx
+++ b/Projeto/Diario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DD082C-6EE1-483B-ACEF-072C7AAF5614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D7F223-503E-4C0C-B63A-0321A0544B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Data</t>
   </si>
@@ -40,6 +40,24 @@
   </si>
   <si>
     <t>Planeamento: Pesquisa funcionalidades e tecnologias</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>Reunião</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>Março</t>
+  </si>
+  <si>
+    <t>Fevereiro</t>
+  </si>
+  <si>
+    <t>Reunião: Apresentação sobre as pesquisas e funcionalidades que pesquisei diferenças entre os diferentes tipos de programas Criação de um diagrama de gantt e designs de pagina</t>
   </si>
 </sst>
 </file>
@@ -62,7 +80,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -75,8 +93,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -99,11 +129,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -122,6 +189,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,19 +489,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.21875" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
@@ -425,28 +511,26 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>45706</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>45707</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
@@ -457,9 +541,9 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>45708</v>
+        <v>45707</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -470,96 +554,169 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
+        <v>45708</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>45709</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>45710</v>
-      </c>
-      <c r="C6" s="4"/>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45711</v>
-      </c>
+        <v>45710</v>
+      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="4"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>45712</v>
-      </c>
+        <v>45711</v>
+      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="4"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>45713</v>
-      </c>
+        <v>45712</v>
+      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="4"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>45714</v>
-      </c>
+        <v>45713</v>
+      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="4"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>45715</v>
-      </c>
+        <v>45714</v>
+      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="4"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>45716</v>
-      </c>
+        <v>45715</v>
+      </c>
+      <c r="B12" s="8"/>
       <c r="C12" s="4"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>45717</v>
-      </c>
+        <v>45716</v>
+      </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="4"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>45718</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="A14" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>45719</v>
-      </c>
+        <v>45717</v>
+      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="4"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
+        <v>45718</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45719</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>45720</v>
       </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="B18" s="8"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>45721</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="B19" s="8"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>45722</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
